--- a/docs/StructureDefinition-CareSite.xlsx
+++ b/docs/StructureDefinition-CareSite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.24.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T11:41:05+00:00</t>
+    <t>2024-04-04T12:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CareSite.xlsx
+++ b/docs/StructureDefinition-CareSite.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:18:58+00:00</t>
+    <t>2024-04-04T15:12:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CareSite.xlsx
+++ b/docs/StructureDefinition-CareSite.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T15:12:40+00:00</t>
+    <t>2024-12-06T10:28:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CareSite.xlsx
+++ b/docs/StructureDefinition-CareSite.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T10:28:21+00:00</t>
+    <t>2024-12-06T10:36:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CareSite.xlsx
+++ b/docs/StructureDefinition-CareSite.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T10:36:59+00:00</t>
+    <t>2024-12-06T10:48:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
